--- a/Wave 5_React_Tracker_(Pooja_Pandeya).xlsx
+++ b/Wave 5_React_Tracker_(Pooja_Pandeya).xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="19">
   <si>
     <t>React Basics (Architecture, Concepts, Lifecycle)</t>
   </si>
@@ -73,6 +73,9 @@
   </si>
   <si>
     <t>To Do</t>
+  </si>
+  <si>
+    <t>24/08/2016</t>
   </si>
 </sst>
 </file>
@@ -404,7 +407,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -412,10 +415,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -521,6 +524,44 @@
         <v>17</v>
       </c>
     </row>
+    <row r="5" spans="1:12">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L5" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:B1"/>

--- a/Wave 5_React_Tracker_(Pooja_Pandeya).xlsx
+++ b/Wave 5_React_Tracker_(Pooja_Pandeya).xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="20">
   <si>
     <t>React Basics (Architecture, Concepts, Lifecycle)</t>
   </si>
@@ -76,6 +76,9 @@
   </si>
   <si>
     <t>24/08/2016</t>
+  </si>
+  <si>
+    <t>25/08/2016</t>
   </si>
 </sst>
 </file>
@@ -407,7 +410,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -415,9 +418,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
       <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
@@ -562,6 +565,44 @@
         <v>17</v>
       </c>
     </row>
+    <row r="6" spans="1:12">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J6" t="s">
+        <v>15</v>
+      </c>
+      <c r="K6" t="s">
+        <v>17</v>
+      </c>
+      <c r="L6" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:B1"/>

--- a/Wave 5_React_Tracker_(Pooja_Pandeya).xlsx
+++ b/Wave 5_React_Tracker_(Pooja_Pandeya).xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="21">
   <si>
     <t>React Basics (Architecture, Concepts, Lifecycle)</t>
   </si>
@@ -79,6 +79,9 @@
   </si>
   <si>
     <t>25/08/2016</t>
+  </si>
+  <si>
+    <t>26/08/2016</t>
   </si>
 </sst>
 </file>
@@ -410,7 +413,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -418,10 +421,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -594,12 +597,50 @@
         <v>16</v>
       </c>
       <c r="J6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K6" t="s">
         <v>17</v>
       </c>
       <c r="L6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L7" t="s">
         <v>17</v>
       </c>
     </row>

--- a/Wave 5_React_Tracker_(Pooja_Pandeya).xlsx
+++ b/Wave 5_React_Tracker_(Pooja_Pandeya).xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="22">
   <si>
     <t>React Basics (Architecture, Concepts, Lifecycle)</t>
   </si>
@@ -82,6 +82,9 @@
   </si>
   <si>
     <t>26/08/2016</t>
+  </si>
+  <si>
+    <t>28/08/2016</t>
   </si>
 </sst>
 </file>
@@ -413,7 +416,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -421,10 +424,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -644,6 +647,44 @@
         <v>17</v>
       </c>
     </row>
+    <row r="8" spans="1:12">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J8" t="s">
+        <v>15</v>
+      </c>
+      <c r="K8" t="s">
+        <v>16</v>
+      </c>
+      <c r="L8" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:B1"/>
